--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2486816.741369967</v>
+        <v>2482804.131355974</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>74.32262784156035</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>83.2534572394808</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.817218682477</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>37.24809668699602</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>97.90411925715622</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>168.1161921880573</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -952,10 +952,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.657500457871408</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>61.42978662487899</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>38.87573184874412</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>316.863043704428</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>201.6622187863195</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>20.27663256309037</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>70.82764119510661</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>21.44532649588058</v>
+        <v>205.6779548755971</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>173.1266359366681</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>144.6100405317613</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>37.17792077063414</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>92.8380285705623</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>113.0992099793461</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>279.4578096667703</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>202.3807982253692</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>16.77337404802782</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>100.1987639469993</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>100.5858322992708</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>203.7149736865408</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>165.1666147997988</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1555.338782035317</v>
+        <v>2051.278283189675</v>
       </c>
       <c r="C2" t="n">
-        <v>1186.376265094905</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>828.1105664881545</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,7 +4327,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
@@ -4339,43 +4339,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2671.712527542323</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2318.943872272208</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="X2" t="n">
-        <v>1945.478114011128</v>
+        <v>2051.278283189675</v>
       </c>
       <c r="Y2" t="n">
-        <v>1555.338782035317</v>
+        <v>2051.278283189675</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022.959038039849</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.959038039849</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.959038039849</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039849</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.775364366698</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>3014.008748936224</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>2724.905882061867</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>2470.221393855981</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W4" t="n">
-        <v>2432.597053768106</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X4" t="n">
-        <v>2204.607502870088</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="Y4" t="n">
-        <v>2204.607502870088</v>
+        <v>1104.32596234414</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1859.132475219474</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1490.169958279062</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1490.169958279062</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1104.381705680818</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>693.3958008912105</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>278.3233507362069</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4573,10 +4573,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4600,19 +4600,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>2635.871647259407</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.583838282732</v>
+        <v>2245.732315283596</v>
       </c>
     </row>
     <row r="6">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>528.3452334219998</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>528.3452334219998</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219998</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1888.02613207966</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1696.340247906487</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1474.573632476013</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1185.470765601656</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>930.7862773957696</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>930.7862773957696</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>930.7862773957696</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>709.9936982522395</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1853.982617026599</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1485.020100086187</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1485.020100086187</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1099.231847487943</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066532</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="X8" t="n">
-        <v>2630.721789066532</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>2240.582457090721</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9582602004506</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C10" t="n">
-        <v>352.0220772725437</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D10" t="n">
-        <v>352.0220772725437</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="E10" t="n">
-        <v>352.0220772725437</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>305.7580249717136</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>138.0551883464325</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.60866391532</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484846</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484846</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1259.157560278959</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>969.7403902419981</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>741.7508393439807</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.9582602004506</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="11">
@@ -5035,46 +5035,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>175.8744207939068</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>175.8744207939068</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096656</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356194</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1849.578742244367</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W13" t="n">
-        <v>1560.161572207406</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X13" t="n">
-        <v>1332.172021309389</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2205.041989997645</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1985.440525020586</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.365298364784</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1441.680810158897</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1152.263640121936</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1152.263640121936</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5530,16 +5530,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385792</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2231.588527385792</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2726.914133601551</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3087.702309109633</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3715.300272664239</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>4267.210002903526</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1650.832398530834</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1361.415228493873</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1133.425677595856</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3028.451182298829</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2859.514999370922</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>2709.398359958587</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>2561.485266376194</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>2561.485266376194</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4530.011662216085</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4310.410197239026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4021.334970583224</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3766.650482377338</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3477.233312340377</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3249.243761442359</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3028.451182298829</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>3060.83890577277</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3060.83890577277</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>3688.436869327377</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>3997.30868757553</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,40 +6238,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>352.5519571452613</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.53722908186</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153953</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741617</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159224</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661314</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305901</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328842</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.25592267304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467153</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>3677.571434467153</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>3563.32980822539</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>3342.53722908186</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1522.21291626627</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3053.935450426147</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2884.99926749824</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>2734.882628085905</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>2586.969534503512</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.969534503512</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3939.050533503821</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3684.366045297935</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3684.366045297935</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3456.376494399917</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3235.583915256387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,25 +6688,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6715,34 +6715,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588918</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>931.4710609784063</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,22 +6949,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239597</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>631.5645865368213</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>481.4479471244855</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>481.4479471244855</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>334.5579996265751</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1051.96493935487</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>883.0287564269629</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>732.9121170146271</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.747069396417</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.7575184984</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.96493935487</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7390,16 +7390,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,28 +7423,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1336.167399417937</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>783.5579673960132</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C43" t="n">
-        <v>614.6217844681063</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D43" t="n">
-        <v>464.5051450557705</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>277.5052172074025</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1482.613153161231</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1193.19598312427</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>965.2064322262529</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>965.2064322262529</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1333.912104952176</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>230.6923168279474</v>
+        <v>46.45968844823091</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>7.899650064976527</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>22.63678056686649</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>214.9597225531939</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>88.18825743108229</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>45.44677382459264</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>112.6104454096911</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>6.726664722473856</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.20385512672561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>148.750764244241</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>46.23519869956992</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>39.70888054695308</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>48.42266963728719</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>121.3563835367922</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>797946.9260679778</v>
+        <v>797946.9260679777</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>797946.9260679778</v>
+        <v>797946.9260679777</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>797946.9260679778</v>
+        <v>797946.9260679777</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>797946.9260679778</v>
+        <v>797946.9260679777</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>797946.9260679777</v>
+        <v>797946.9260679778</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="C2" t="n">
         <v>636307.37164482</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448192</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597546</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.412581696058623e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815704</v>
       </c>
       <c r="C4" t="n">
         <v>90964.01098815713</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815704</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
+        <v>11776.97621680586</v>
+      </c>
+      <c r="G4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11776.97621680578</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
@@ -26450,13 +26450,13 @@
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680576</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680577</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-891335.3256323229</v>
+        <v>-891335.3256323239</v>
       </c>
       <c r="C6" t="n">
-        <v>437409.4200952696</v>
+        <v>437409.4200952699</v>
       </c>
       <c r="D6" t="n">
-        <v>437409.4200952687</v>
+        <v>437409.4200952689</v>
       </c>
       <c r="E6" t="n">
-        <v>187226.6469116866</v>
+        <v>186879.2676573299</v>
       </c>
       <c r="F6" t="n">
-        <v>512639.1087190419</v>
+        <v>512291.7294646851</v>
       </c>
       <c r="G6" t="n">
-        <v>512639.1087190421</v>
+        <v>512291.7294646847</v>
       </c>
       <c r="H6" t="n">
-        <v>512639.1087190419</v>
+        <v>512291.7294646849</v>
       </c>
       <c r="I6" t="n">
-        <v>512639.1087190416</v>
+        <v>512291.7294646846</v>
       </c>
       <c r="J6" t="n">
-        <v>295107.9063217647</v>
+        <v>294760.5270674074</v>
       </c>
       <c r="K6" t="n">
-        <v>512639.1087190419</v>
+        <v>512291.7294646851</v>
       </c>
       <c r="L6" t="n">
-        <v>512639.1087190417</v>
+        <v>512291.7294646849</v>
       </c>
       <c r="M6" t="n">
-        <v>427584.0807835301</v>
+        <v>427236.7015291731</v>
       </c>
       <c r="N6" t="n">
-        <v>512639.108719042</v>
+        <v>512291.7294646847</v>
       </c>
       <c r="O6" t="n">
-        <v>512639.1087190416</v>
+        <v>512291.7294646849</v>
       </c>
       <c r="P6" t="n">
-        <v>512639.1087190416</v>
+        <v>512291.7294646849</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973556</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973556</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973556</v>
@@ -27381,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>290.9502639294472</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>244.4988012306541</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>249.274901649595</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>127.8055361318809</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>126.4915721992631</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>382.5804381981822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>83.3252282894418</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>50.05642082130321</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>90.01300203728346</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>2.255751353300639</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>125.1444154598409</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>73.92737371921417</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>8.769894134013742e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30228,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>209.7242506524596</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>433.9798411722585</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>506.5665344352321</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>194.5189324111248</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32709,34 +32709,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>454.5879800486389</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>397.4049812900381</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>520.337216085408</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>687.544841654958</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33900,7 +33900,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175677</v>
@@ -33970,16 +33970,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>246.9596973201444</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34143,7 +34143,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
@@ -34207,13 +34207,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O42" t="n">
-        <v>671.2522281007816</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34374,7 +34374,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162548</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175677</v>
@@ -34444,34 +34444,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>82.88662398579288</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>291.8458072502402</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>364.4325005132138</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>55.96455263125056</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>311.9917356041944</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>259.5635423156791</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>377.7409716409636</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>556.2031295716247</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37548,7 +37548,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462684</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
         <v>735.300110790295</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>108.4053175402702</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O42" t="n">
-        <v>528.6559836563372</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38022,7 +38022,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
         <v>735.300110790295</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2482804.131355974</v>
+        <v>2484564.661658759</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>74.32262784156035</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>28.90798465780279</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X4" t="n">
-        <v>97.90411925715622</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>168.1161921880573</v>
+        <v>178.7060423383832</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>61.42978662487899</v>
+        <v>52.07852635745803</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>201.6622187863195</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>218.8748435506837</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>70.82764119510661</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>34.987230763697</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1347,19 +1347,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1536,13 +1536,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>36.43062059490504</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>205.6779548755971</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417106</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576164</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>80.33989744909005</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>144.6100405317613</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>42.71572132711237</v>
+        <v>8.168913835720309</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>167.1438108880265</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>101.6969570046971</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310382</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>31.26260713376619</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>100.5858322992708</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2051.278283189675</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>510.7845510900181</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>95.71210093501452</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450755</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189675</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2051.278283189675</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922.6774975139006</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
         <v>922.6774975139006</v>
@@ -4485,22 +4485,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>1424.011591242373</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>1325.11854148767</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>1104.32596234414</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1859.132475219474</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="C5" t="n">
-        <v>1490.169958279062</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="D5" t="n">
-        <v>1490.169958279062</v>
+        <v>1500.866776612725</v>
       </c>
       <c r="E5" t="n">
-        <v>1104.381705680818</v>
+        <v>1115.078524014481</v>
       </c>
       <c r="F5" t="n">
-        <v>693.3958008912105</v>
+        <v>704.092619224873</v>
       </c>
       <c r="G5" t="n">
-        <v>278.3233507362069</v>
+        <v>289.0201690698695</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.871647259407</v>
+        <v>2635.871647259409</v>
       </c>
       <c r="Y5" t="n">
-        <v>2245.732315283596</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1007.446783179745</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>838.5106002518381</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3939608395024</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>540.4808672571093</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="F7" t="n">
-        <v>393.5909197591989</v>
+        <v>286.8195251357049</v>
       </c>
       <c r="G7" t="n">
-        <v>225.8880831339178</v>
+        <v>119.1166885104239</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4761,16 +4761,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051532</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>1409.887827153515</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.095248009985</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3121.906610713899</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3121.906610713899</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3121.906610713899</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>3121.906610713899</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,49 +4886,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>452.6479724696239</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>452.6479724696239</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>452.6479724696239</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>452.6479724696239</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>305.7580249717136</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>138.0551883464325</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1891.953910953445</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1700.268026780272</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W10" t="n">
-        <v>680.6375233676413</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>452.6479724696239</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>452.6479724696239</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,28 +5053,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.7825789706076</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427007</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.630343879355</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.213173842395</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>963.2236229443774</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.4310438008473</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="17">
@@ -5503,43 +5503,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,10 +5606,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,28 +5764,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>808.8888553856866</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>639.9526724577797</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>990.5373202159263</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6244,34 +6244,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1519.553721644579</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1230.136551607618</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>1002.147000709601</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>781.3544215660705</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>363.7369613277355</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>363.7369613277355</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6694,40 +6694,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327652</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>444.7013164925226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>444.7013164925226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>277.5052172074025</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630049</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012541</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>46.45968844823091</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>66.09406519747913</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>22.63678056686649</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>105.8997516911</v>
+        <v>140.4465591824921</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>84.99383243580147</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>43.72409101823416</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.0397529241845</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>186.1428431935221</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>39.70888054695308</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>797946.9260679777</v>
+        <v>797946.9260679778</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>797946.9260679778</v>
+        <v>797946.9260679777</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="I2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="F2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.6147597545</v>
-      </c>
       <c r="J2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815704</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815705</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680577</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
@@ -26447,7 +26447,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680576</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
@@ -26456,7 +26456,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-891335.3256323239</v>
+        <v>-891335.3256323236</v>
       </c>
       <c r="C6" t="n">
-        <v>437409.4200952699</v>
+        <v>437409.4200952691</v>
       </c>
       <c r="D6" t="n">
-        <v>437409.4200952689</v>
+        <v>437409.420095269</v>
       </c>
       <c r="E6" t="n">
-        <v>186879.2676573299</v>
+        <v>187191.9089862509</v>
       </c>
       <c r="F6" t="n">
-        <v>512291.7294646851</v>
+        <v>512604.370793606</v>
       </c>
       <c r="G6" t="n">
-        <v>512291.7294646847</v>
+        <v>512604.3707936062</v>
       </c>
       <c r="H6" t="n">
-        <v>512291.7294646849</v>
+        <v>512604.370793606</v>
       </c>
       <c r="I6" t="n">
-        <v>512291.7294646846</v>
+        <v>512604.3707936063</v>
       </c>
       <c r="J6" t="n">
-        <v>294760.5270674074</v>
+        <v>295073.1683963286</v>
       </c>
       <c r="K6" t="n">
-        <v>512291.7294646851</v>
+        <v>512604.370793606</v>
       </c>
       <c r="L6" t="n">
-        <v>512291.7294646849</v>
+        <v>512604.3707936062</v>
       </c>
       <c r="M6" t="n">
-        <v>427236.7015291731</v>
+        <v>427549.3428580943</v>
       </c>
       <c r="N6" t="n">
-        <v>512291.7294646847</v>
+        <v>512604.3707936062</v>
       </c>
       <c r="O6" t="n">
-        <v>512291.7294646849</v>
+        <v>512604.370793606</v>
       </c>
       <c r="P6" t="n">
-        <v>512291.7294646849</v>
+        <v>512604.3707936062</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>290.9502639294472</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>265.6997797295177</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X4" t="n">
-        <v>127.8055361318809</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>126.4915721992631</v>
+        <v>115.9017220489372</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>83.3252282894418</v>
+        <v>92.67648855686275</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>2.255751353300639</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>108.8774149194512</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>73.92737371921417</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>53.94492190635033</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28067,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28295,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-2.517001600586576e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-8.038590482916834e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>8.769894134013742e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N12" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N12" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
